--- a/additional material/MODELLO FARC partecipanti_da_importare.xlsx
+++ b/additional material/MODELLO FARC partecipanti_da_importare.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medlar\Desktop\Python_app\placeholder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medlar\Desktop\Python_app\additional material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D70B6F9-2563-443B-9D99-78E551F2CD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A169EE7B-6A81-412B-9AF4-4F5E6EEDFC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4440" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30675" yWindow="6780" windowWidth="15375" windowHeight="7965" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elenco" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="804">
   <si>
     <t>nome</t>
   </si>
@@ -2435,6 +2435,9 @@
   </si>
   <si>
     <t>RSSMRA85T10A562S</t>
+  </si>
+  <si>
+    <t>CCCFBA85D03L219P</t>
   </si>
 </sst>
 </file>
@@ -2895,7 +2898,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2992,7 +2995,7 @@
         <v>801</v>
       </c>
       <c r="C3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>

--- a/additional material/MODELLO FARC partecipanti_da_importare.xlsx
+++ b/additional material/MODELLO FARC partecipanti_da_importare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medlar\Desktop\Python_app\additional material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A169EE7B-6A81-412B-9AF4-4F5E6EEDFC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C15D31-7568-4A2D-9C56-374CD3E7244C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30675" yWindow="6780" windowWidth="15375" windowHeight="7965" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8955" yWindow="2205" windowWidth="15375" windowHeight="7965" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elenco" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="806">
   <si>
     <t>nome</t>
   </si>
@@ -2422,22 +2422,28 @@
     <t>NO</t>
   </si>
   <si>
-    <t>nome 1</t>
-  </si>
-  <si>
-    <t>nome 2</t>
-  </si>
-  <si>
-    <t>cognome1</t>
-  </si>
-  <si>
-    <t>cognome2</t>
-  </si>
-  <si>
     <t>RSSMRA85T10A562S</t>
   </si>
   <si>
     <t>CCCFBA85D03L219P</t>
+  </si>
+  <si>
+    <t>giorgio</t>
+  </si>
+  <si>
+    <t>cane</t>
+  </si>
+  <si>
+    <t>gatto</t>
+  </si>
+  <si>
+    <t>emanuele</t>
+  </si>
+  <si>
+    <t>tommaso</t>
+  </si>
+  <si>
+    <t>topo</t>
   </si>
 </sst>
 </file>
@@ -2895,10 +2901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2978,24 +2984,90 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C2" t="s">
         <v>798</v>
-      </c>
-      <c r="B2" t="s">
-        <v>800</v>
-      </c>
-      <c r="C2" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B3" t="s">
+        <v>802</v>
+      </c>
+      <c r="C3" t="s">
         <v>799</v>
       </c>
-      <c r="B3" t="s">
-        <v>801</v>
-      </c>
-      <c r="C3" t="s">
-        <v>803</v>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B4" t="s">
+        <v>805</v>
+      </c>
+      <c r="C4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>222</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>333</v>
+      </c>
+      <c r="B6">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>444</v>
+      </c>
+      <c r="B7">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>555</v>
+      </c>
+      <c r="B8">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>666</v>
+      </c>
+      <c r="B9">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>799</v>
       </c>
     </row>
   </sheetData>
